--- a/simulaciones.xlsx
+++ b/simulaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,39 +504,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3, 0, 1, 1, 4, 3, 5]</t>
+          <t>[0, 3, 5, 3, 2, 5, 0]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 3, 3, 3, 4]</t>
+          <t>[0, 3, 2, 3, 3, 4, 3]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 2]</t>
+          <t>[0, 0, 3, 3, 2, 3, 0]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="J2" t="n">
-        <v>15000</v>
+        <v>900000</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>275000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="3">
@@ -548,39 +548,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[3, 1, 0, 3, 4, 0, 4]</t>
+          <t>[1, 3, 1, 0, 2, 3, 3]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[3, 3, 0, 3, 3, 2, 3]</t>
+          <t>[4, 2, 3, 0, 3, 5, 3]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J3" t="n">
-        <v>14000</v>
+        <v>650000</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="4">
@@ -592,24 +592,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[4, 0, 1, 0, 0, 0, 5]</t>
+          <t>[5, 3, 2, 0, 4, 1, 1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 0, 0, 0, 3]</t>
+          <t>[3, 4, 3, 0, 3, 3, 3]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[2, 0, 0, 0, 0, 0, 2]</t>
+          <t>[2, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -618,13 +618,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="J4" t="n">
-        <v>8000</v>
+        <v>800000</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="L4" t="n">
-        <v>6000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="5">
@@ -636,39 +636,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[2, 2, 3, 5, 3, 5, 1]</t>
+          <t>[3, 1, 5, 4, 0, 5, 1]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 3, 2, 3, 3]</t>
+          <t>[3, 3, 3, 2, 3, 3, 2]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 3, 4, 6, 4]</t>
+          <t>[0, 0, 2, 4, 1, 3, 2]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>2.571428571428572</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="J5" t="n">
-        <v>17000</v>
+        <v>850000</v>
       </c>
       <c r="K5" t="n">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="6">
@@ -680,39 +680,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[1, 5, 3, 0, 2, 3, 4]</t>
+          <t>[4, 3, 3, 2, 2, 1, 1]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[3, 2, 5, 1, 2, 3, 2]</t>
+          <t>[3, 3, 5, 3, 4, 3, 4]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 0, 0, 0, 2]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
         <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J6" t="n">
-        <v>16000</v>
+        <v>800000</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="7">
@@ -724,24 +724,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[3, 0, 1, 0, 4, 4, 0]</t>
+          <t>[3, 5, 1, 4, 2, 4, 3]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[3, 0, 2, 0, 3, 3, 4]</t>
+          <t>[3, 4, 3, 4, 4, 4, 1]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 2, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 2]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
@@ -750,13 +750,13 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="J7" t="n">
-        <v>12000</v>
+        <v>1000000</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>75000</v>
       </c>
       <c r="L7" t="n">
-        <v>10500</v>
+        <v>925000</v>
       </c>
     </row>
     <row r="8">
@@ -768,24 +768,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 4, 1, 4, 5]</t>
+          <t>[0, 5, 2, 1, 1, 0, 4]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[3, 3, 4, 3, 3, 4, 3]</t>
+          <t>[0, 3, 2, 2, 3, 0, 5]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 2, 0, 0, 2]</t>
+          <t>[0, 2, 2, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -794,13 +794,13 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="J8" t="n">
-        <v>22000</v>
+        <v>650000</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>125000</v>
       </c>
       <c r="L8" t="n">
-        <v>19500</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="9">
@@ -812,39 +812,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[5, 2, 3, 1, 5, 3, 4]</t>
+          <t>[0, 2, 0, 4, 1, 0, 1]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[3, 1, 3, 3, 2, 4, 3]</t>
+          <t>[0, 2, 0, 2, 3, 0, 2]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[2, 3, 3, 1, 4, 3, 4]</t>
+          <t>[0, 0, 0, 2, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.857142857142857</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J9" t="n">
-        <v>19000</v>
+        <v>400000</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="L9" t="n">
-        <v>9000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="10">
@@ -856,39 +856,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[3, 3, 4, 3, 4, 3, 4]</t>
+          <t>[3, 3, 3, 1, 1, 5, 2]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[3, 4, 1, 4, 3, 2, 2]</t>
+          <t>[3, 3, 3, 3, 4, 3, 3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0, 0, 3, 2, 3, 4, 6]</t>
+          <t>[0, 0, 0, 0, 0, 2, 1]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J10" t="n">
-        <v>18000</v>
+        <v>850000</v>
       </c>
       <c r="K10" t="n">
-        <v>9000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>9000</v>
+        <v>775000</v>
       </c>
     </row>
     <row r="11">
@@ -900,39 +900,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0, 5, 0, 3, 3, 3, 0]</t>
+          <t>[1, 1, 3, 3, 1, 1, 4]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0, 2, 2, 2, 4, 3, 5]</t>
+          <t>[2, 2, 3, 3, 3, 3, 3]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 1, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J11" t="n">
-        <v>14000</v>
+        <v>650000</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="12">
@@ -944,39 +944,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[5, 2, 4, 1, 4, 2, 4]</t>
+          <t>[2, 1, 2, 3, 3, 4, 4]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[4, 3, 2, 3, 4, 4, 3]</t>
+          <t>[4, 4, 3, 2, 3, 3, 4]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[1, 0, 2, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1, 1, 2, 2]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J12" t="n">
-        <v>21000</v>
+        <v>850000</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>150000</v>
       </c>
       <c r="L12" t="n">
-        <v>19000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="13">
@@ -988,39 +988,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0, 5, 2, 4, 3, 1, 0]</t>
+          <t>[4, 4, 0, 1, 1, 1, 2]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 3, 3, 4, 0]</t>
+          <t>[2, 3, 3, 4, 5, 3, 2]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0, 2, 1, 2, 2, 0, 0]</t>
+          <t>[2, 3, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J13" t="n">
-        <v>15000</v>
+        <v>650000</v>
       </c>
       <c r="K13" t="n">
-        <v>3500</v>
+        <v>125000</v>
       </c>
       <c r="L13" t="n">
-        <v>11500</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="14">
@@ -1032,39 +1032,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 3, 4, 4, 3]</t>
+          <t>[4, 4, 3, 4, 0, 3, 4]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0, 3, 2, 2, 3, 3, 4]</t>
+          <t>[1, 3, 5, 2, 3, 3, 3]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0, 0, 2, 3, 4, 5, 4]</t>
+          <t>[3, 4, 2, 4, 1, 1, 2]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
-        <v>2.571428571428572</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="J14" t="n">
-        <v>15000</v>
+        <v>1000000</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>425000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000</v>
+        <v>575000</v>
       </c>
     </row>
     <row r="15">
@@ -1076,39 +1076,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3, 3, 4, 5, 4, 0, 3]</t>
+          <t>[4, 4, 3, 1, 3, 1, 4]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 5, 3, 3, 4]</t>
+          <t>[3, 2, 2, 3, 2, 4, 4]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 2, 0, 0]</t>
+          <t>[1, 3, 4, 2, 3, 0, 0]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="J15" t="n">
-        <v>22000</v>
+        <v>1000000</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>325000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="16">
@@ -1120,39 +1120,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[2, 3, 0, 3, 5, 2, 1]</t>
+          <t>[4, 0, 5, 1, 1, 4, 1]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[4, 5, 0, 5, 1, 3, 2]</t>
+          <t>[4, 0, 5, 5, 2, 3, 5]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 4, 3, 2]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.285714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J16" t="n">
-        <v>14000</v>
+        <v>800000</v>
       </c>
       <c r="K16" t="n">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="L16" t="n">
-        <v>9500</v>
+        <v>775000</v>
       </c>
     </row>
     <row r="17">
@@ -1164,39 +1164,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[1, 1, 3, 1, 2, 0, 1]</t>
+          <t>[3, 1, 3, 3, 2, 4, 3]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[3, 1, 4, 4, 3, 0, 4]</t>
+          <t>[3, 3, 4, 3, 1, 4, 5]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J17" t="n">
-        <v>9000</v>
+        <v>950000</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="18">
@@ -1208,39 +1208,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[4, 3, 0, 3, 0, 5, 0]</t>
+          <t>[3, 2, 5, 2, 3, 0, 4]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[2, 2, 3, 4, 0, 4, 3]</t>
+          <t>[5, 3, 3, 3, 3, 3, 3]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2, 3, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 2, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J18" t="n">
-        <v>15000</v>
+        <v>900000</v>
       </c>
       <c r="K18" t="n">
-        <v>3000</v>
+        <v>125000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>775000</v>
       </c>
     </row>
     <row r="19">
@@ -1252,39 +1252,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[1, 5, 0, 3, 1, 5, 3]</t>
+          <t>[5, 5, 0, 2, 4, 3, 3]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 2, 3, 3, 3]</t>
+          <t>[1, 4, 3, 2, 2, 4, 3]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0, 2, 0, 1, 0, 2, 2]</t>
+          <t>[4, 5, 2, 2, 4, 3, 3]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="J19" t="n">
-        <v>16000</v>
+        <v>950000</v>
       </c>
       <c r="K19" t="n">
-        <v>3500</v>
+        <v>575000</v>
       </c>
       <c r="L19" t="n">
-        <v>12500</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="20">
@@ -1296,39 +1296,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[3, 4, 2, 2, 4, 3, 3]</t>
+          <t>[1, 4, 3, 3, 5, 4, 2]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[2, 3, 3, 3, 3, 3, 3]</t>
+          <t>[1, 3, 5, 3, 3, 3, 5]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[1, 2, 1, 0, 1, 1, 1]</t>
+          <t>[0, 1, 0, 0, 2, 3, 0]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J20" t="n">
-        <v>20000</v>
+        <v>1100000</v>
       </c>
       <c r="K20" t="n">
-        <v>3500</v>
+        <v>150000</v>
       </c>
       <c r="L20" t="n">
-        <v>16500</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="21">
@@ -1340,39 +1340,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[1, 0, 3, 0, 1, 4, 0]</t>
+          <t>[3, 0, 4, 1, 3, 4, 5]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[2, 0, 4, 0, 3, 5, 0]</t>
+          <t>[4, 0, 1, 3, 3, 3, 4]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 3, 1, 1, 2, 3]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="J21" t="n">
-        <v>9000</v>
+        <v>850000</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="22">
@@ -1384,39 +1384,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 4, 2, 3, 3]</t>
+          <t>[3, 1, 3, 5, 3, 1, 1]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[5, 2, 3, 3, 4, 3, 5]</t>
+          <t>[5, 3, 4, 3, 2, 2, 3]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 2, 3, 2, 0]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>20000</v>
+        <v>850000</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>175000</v>
       </c>
       <c r="L22" t="n">
-        <v>19000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="23">
@@ -1428,39 +1428,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[3, 1, 1, 1, 5, 4, 4]</t>
+          <t>[4, 2, 1, 1, 5, 1, 3]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[4, 4, 3, 3, 3, 2, 3]</t>
+          <t>[3, 3, 3, 3, 3, 3, 4]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 2, 4, 5]</t>
+          <t>[1, 0, 0, 0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J23" t="n">
-        <v>14000</v>
+        <v>850000</v>
       </c>
       <c r="K23" t="n">
-        <v>5500</v>
+        <v>75000</v>
       </c>
       <c r="L23" t="n">
-        <v>8500</v>
+        <v>775000</v>
       </c>
     </row>
     <row r="24">
@@ -1472,39 +1472,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[1, 5, 1, 4, 1, 5, 1]</t>
+          <t>[4, 4, 3, 5, 3, 2, 0]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 4, 3, 3]</t>
+          <t>[3, 3, 3, 3, 3, 4, 2]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0, 2, 0, 1, 0, 2, 0]</t>
+          <t>[1, 2, 2, 4, 4, 2, 0]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7142857142857143</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>18000</v>
+        <v>1050000</v>
       </c>
       <c r="K24" t="n">
-        <v>2500</v>
+        <v>375000</v>
       </c>
       <c r="L24" t="n">
-        <v>15500</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="25">
@@ -1516,39 +1516,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[3, 0, 4, 3, 2, 3, 3]</t>
+          <t>[5, 0, 5, 3, 1, 2, 1]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[4, 0, 3, 5, 4, 4, 3]</t>
+          <t>[5, 0, 3, 3, 1, 3, 2]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 2, 2, 2, 1, 0]</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="J25" t="n">
-        <v>18000</v>
+        <v>850000</v>
       </c>
       <c r="K25" t="n">
-        <v>500</v>
+        <v>175000</v>
       </c>
       <c r="L25" t="n">
-        <v>17500</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="26">
@@ -1560,39 +1560,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[1, 1, 4, 3, 5, 4, 3]</t>
+          <t>[1, 5, 3, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[5, 3, 3, 5, 4, 3, 3]</t>
+          <t>[2, 2, 3, 3, 3, 3, 5]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 2, 2]</t>
+          <t>[0, 3, 3, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>19000</v>
+        <v>650000</v>
       </c>
       <c r="K26" t="n">
-        <v>3000</v>
+        <v>175000</v>
       </c>
       <c r="L26" t="n">
-        <v>16000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="27">
@@ -1604,39 +1604,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[2, 4, 5, 3, 3, 1, 2]</t>
+          <t>[0, 3, 3, 3, 1, 0, 3]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 2, 4, 2, 3]</t>
+          <t>[0, 4, 3, 3, 3, 0, 3]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 3, 2, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>19000</v>
+        <v>650000</v>
       </c>
       <c r="K27" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="28">
@@ -1648,39 +1648,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[3, 2, 4, 4, 5, 4, 2]</t>
+          <t>[1, 0, 4, 4, 4, 4, 2]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[3, 5, 2, 1, 3, 3, 4]</t>
+          <t>[3, 0, 4, 5, 3, 5, 4]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0, 0, 2, 5, 7, 8, 6]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J28" t="n">
-        <v>18000</v>
+        <v>950000</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L28" t="n">
-        <v>4000</v>
+        <v>925000</v>
       </c>
     </row>
     <row r="29">
@@ -1692,39 +1692,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[4, 1, 3, 0, 0, 2, 3]</t>
+          <t>[1, 4, 4, 4, 1, 3, 2]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[3, 3, 4, 0, 0, 4, 1]</t>
+          <t>[4, 3, 4, 1, 5, 3, 4]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 2]</t>
+          <t>[0, 1, 1, 4, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J29" t="n">
-        <v>11000</v>
+        <v>950000</v>
       </c>
       <c r="K29" t="n">
-        <v>1500</v>
+        <v>150000</v>
       </c>
       <c r="L29" t="n">
-        <v>9500</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="30">
@@ -1736,17 +1736,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[2, 4, 3, 4, 1, 0, 2]</t>
+          <t>[2, 1, 1, 4, 4, 4, 0]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[4, 4, 3, 2, 5, 0, 5]</t>
+          <t>[3, 3, 3, 3, 2, 4, 3]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 2, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 3, 3, 0]</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1756,19 +1756,19 @@
         <v>16</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>16000</v>
+        <v>800000</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>175000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="31">
@@ -1780,39 +1780,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[5, 3, 2, 4, 3, 4, 3]</t>
+          <t>[2, 3, 5, 1, 3, 3, 2]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[3, 4, 4, 2, 4, 3, 5]</t>
+          <t>[2, 3, 3, 3, 4, 3, 2]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[2, 1, 0, 2, 1, 2, 0]</t>
+          <t>[0, 0, 2, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>1.142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J31" t="n">
-        <v>24000</v>
+        <v>950000</v>
       </c>
       <c r="K31" t="n">
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="32">
@@ -1824,39 +1824,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[4, 5, 1, 2, 3, 1, 0]</t>
+          <t>[2, 0, 3, 2, 3, 1, 4]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[2, 2, 3, 3, 3, 3, 0]</t>
+          <t>[5, 0, 3, 3, 5, 2, 4]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[2, 5, 3, 2, 2, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>16000</v>
+        <v>750000</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="33">
@@ -1868,39 +1868,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[5, 3, 0, 1, 5, 2, 0]</t>
+          <t>[4, 4, 0, 0, 4, 0, 1]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 5, 4, 3, 0]</t>
+          <t>[3, 5, 0, 0, 4, 0, 3]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[2, 2, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G33" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J33" t="n">
-        <v>16000</v>
+        <v>650000</v>
       </c>
       <c r="K33" t="n">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="L33" t="n">
-        <v>13500</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="34">
@@ -1912,39 +1912,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[4, 3, 1, 2, 2, 3, 4]</t>
+          <t>[0, 0, 2, 2, 1, 5, 0]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[3, 5, 5, 4, 2, 5, 3]</t>
+          <t>[0, 0, 4, 2, 4, 5, 0]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18000</v>
+        <v>500000</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>17000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="35">
@@ -1956,39 +1956,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[4, 0, 2, 4, 1, 4, 0]</t>
+          <t>[3, 5, 3, 1, 4, 2, 2]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[3, 3, 4, 2, 2, 3, 3]</t>
+          <t>[3, 3, 3, 3, 3, 3, 4]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 2, 1, 2, 0]</t>
+          <t>[0, 2, 2, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J35" t="n">
-        <v>15000</v>
+        <v>1000000</v>
       </c>
       <c r="K35" t="n">
-        <v>3000</v>
+        <v>125000</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="36">
@@ -2000,39 +2000,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 5, 3, 3, 3]</t>
+          <t>[5, 1, 3, 3, 1, 3, 2]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 5, 2, 3, 3]</t>
+          <t>[3, 5, 5, 2, 4, 3, 4]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 2, 2, 2]</t>
+          <t>[2, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>1.428571428571429</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J36" t="n">
-        <v>22000</v>
+        <v>900000</v>
       </c>
       <c r="K36" t="n">
-        <v>5000</v>
+        <v>75000</v>
       </c>
       <c r="L36" t="n">
-        <v>17000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="37">
@@ -2044,39 +2044,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[4, 1, 4, 3, 2, 1, 1]</t>
+          <t>[3, 4, 3, 2, 4, 4, 3]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[2, 1, 3, 3, 4, 3, 3]</t>
+          <t>[4, 3, 4, 2, 3, 2, 3]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[2, 2, 3, 3, 1, 0, 0]</t>
+          <t>[0, 1, 0, 0, 1, 3, 3]</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I37" t="n">
-        <v>1.571428571428571</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="J37" t="n">
-        <v>16000</v>
+        <v>1000000</v>
       </c>
       <c r="K37" t="n">
-        <v>5500</v>
+        <v>200000</v>
       </c>
       <c r="L37" t="n">
-        <v>10500</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="38">
@@ -2088,39 +2088,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 0, 3, 2, 0]</t>
+          <t>[1, 1, 1, 4, 1, 3, 4]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[4, 2, 3, 2, 3, 3, 0]</t>
+          <t>[4, 3, 4, 4, 3, 2, 2]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 3]</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J38" t="n">
-        <v>15000</v>
+        <v>600000</v>
       </c>
       <c r="K38" t="n">
-        <v>3000</v>
+        <v>100000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="39">
@@ -2132,39 +2132,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[5, 5, 0, 1, 5, 4, 0]</t>
+          <t>[5, 2, 4, 3, 5, 2, 3]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[2, 3, 3, 3, 3, 3, 5]</t>
+          <t>[3, 4, 3, 4, 1, 3, 3]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[3, 5, 2, 0, 2, 3, 0]</t>
+          <t>[2, 0, 1, 0, 4, 3, 3]</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" t="n">
-        <v>2.142857142857143</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="J39" t="n">
-        <v>20000</v>
+        <v>1050000</v>
       </c>
       <c r="K39" t="n">
-        <v>7500</v>
+        <v>325000</v>
       </c>
       <c r="L39" t="n">
-        <v>12500</v>
+        <v>725000</v>
       </c>
     </row>
     <row r="40">
@@ -2176,39 +2176,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[2, 4, 2, 1, 4, 3, 1]</t>
+          <t>[5, 3, 1, 2, 5, 4, 0]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[3, 5, 4, 3, 2, 3, 3]</t>
+          <t>[3, 2, 3, 4, 5, 3, 3]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 2, 2, 0]</t>
+          <t>[2, 3, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>17000</v>
+        <v>1000000</v>
       </c>
       <c r="K40" t="n">
-        <v>2000</v>
+        <v>175000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="41">
@@ -2220,39 +2220,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[1, 5, 0, 3, 4, 1, 1]</t>
+          <t>[4, 3, 5, 4, 3, 3, 1]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[4, 5, 0, 3, 3, 2, 3]</t>
+          <t>[3, 2, 5, 4, 5, 3, 4]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 2, 2, 2, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G41" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H41" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="n">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="J41" t="n">
-        <v>15000</v>
+        <v>1150000</v>
       </c>
       <c r="K41" t="n">
-        <v>500</v>
+        <v>175000</v>
       </c>
       <c r="L41" t="n">
-        <v>14500</v>
+        <v>975000</v>
       </c>
     </row>
     <row r="42">
@@ -2264,39 +2264,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 3, 3, 1, 3]</t>
+          <t>[1, 3, 3, 1, 5, 4, 0]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[3, 2, 4, 1, 5, 3, 3]</t>
+          <t>[2, 4, 3, 4, 3, 3, 5]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 2, 0, 0]</t>
+          <t>[0, 0, 0, 0, 2, 3, 0]</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>1.285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J42" t="n">
-        <v>19000</v>
+        <v>850000</v>
       </c>
       <c r="K42" t="n">
-        <v>4500</v>
+        <v>125000</v>
       </c>
       <c r="L42" t="n">
-        <v>14500</v>
+        <v>725000</v>
       </c>
     </row>
     <row r="43">
@@ -2308,39 +2308,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[5, 3, 1, 1, 1, 1, 1]</t>
+          <t>[3, 4, 0, 1, 0, 4, 3]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 4, 3, 3, 3]</t>
+          <t>[3, 1, 3, 3, 0, 2, 3]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 3, 0, 0, 0, 2, 2]</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G43" t="n">
         <v>13</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>13000</v>
+        <v>650000</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>175000</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="44">
@@ -2352,39 +2352,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[3, 2, 4, 2, 3, 1, 0]</t>
+          <t>[2, 1, 1, 3, 3, 4, 2]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[4, 3, 1, 3, 3, 4, 0]</t>
+          <t>[3, 3, 3, 3, 2, 4, 3]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0, 0, 3, 2, 2, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J44" t="n">
-        <v>15000</v>
+        <v>800000</v>
       </c>
       <c r="K44" t="n">
-        <v>3500</v>
+        <v>50000</v>
       </c>
       <c r="L44" t="n">
-        <v>11500</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="45">
@@ -2396,39 +2396,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[4, 1, 1, 4, 4, 3, 3]</t>
+          <t>[0, 2, 0, 4, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[3, 2, 3, 3, 3, 2, 3]</t>
+          <t>[0, 3, 0, 3, 3, 0, 0]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 2, 3, 3]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1.428571428571429</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J45" t="n">
-        <v>17000</v>
+        <v>300000</v>
       </c>
       <c r="K45" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>12000</v>
+        <v>275000</v>
       </c>
     </row>
     <row r="46">
@@ -2440,39 +2440,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[1, 4, 2, 3, 3, 0, 5]</t>
+          <t>[2, 0, 4, 4, 1, 1, 0]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[3, 2, 3, 3, 2, 2, 3]</t>
+          <t>[4, 0, 3, 2, 3, 3, 0]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0, 2, 1, 1, 2, 0, 2]</t>
+          <t>[0, 0, 1, 3, 1, 0, 0]</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G46" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>1.142857142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J46" t="n">
-        <v>16000</v>
+        <v>600000</v>
       </c>
       <c r="K46" t="n">
-        <v>4000</v>
+        <v>125000</v>
       </c>
       <c r="L46" t="n">
-        <v>12000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="47">
@@ -2484,39 +2484,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[4, 4, 3, 4, 3, 1, 3]</t>
+          <t>[0, 5, 2, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[5, 3, 3, 3, 3, 3, 5]</t>
+          <t>[0, 4, 4, 3, 0, 5, 2]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 2, 2, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J47" t="n">
-        <v>22000</v>
+        <v>500000</v>
       </c>
       <c r="K47" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="L47" t="n">
-        <v>19000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="48">
@@ -2528,39 +2528,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 4, 2, 2]</t>
+          <t>[5, 2, 0, 1, 4, 3, 0]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[0, 3, 0, 1, 3, 3, 3]</t>
+          <t>[4, 5, 0, 3, 3, 3, 3]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J48" t="n">
-        <v>10000</v>
+        <v>750000</v>
       </c>
       <c r="K48" t="n">
-        <v>500</v>
+        <v>75000</v>
       </c>
       <c r="L48" t="n">
-        <v>9500</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="49">
@@ -2572,39 +2572,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 3, 5, 4]</t>
+          <t>[3, 5, 1, 4, 0, 4, 3]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 2, 4, 3, 3]</t>
+          <t>[5, 3, 3, 3, 3, 2, 3]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0, 3, 5, 4, 3, 5, 6]</t>
+          <t>[0, 2, 0, 1, 0, 2, 2]</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H49" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>3.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>16000</v>
+        <v>900000</v>
       </c>
       <c r="K49" t="n">
-        <v>13000</v>
+        <v>175000</v>
       </c>
       <c r="L49" t="n">
-        <v>3000</v>
+        <v>725000</v>
       </c>
     </row>
     <row r="50">
@@ -2616,39 +2616,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 4, 1, 0, 2]</t>
+          <t>[2, 5, 5, 2, 4, 2, 2]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 4, 3, 0, 3]</t>
+          <t>[2, 3, 3, 4, 3, 4, 3]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 2, 0, 0, 0]</t>
+          <t>[0, 2, 4, 2, 3, 1, 0]</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7142857142857143</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="J50" t="n">
-        <v>19000</v>
+        <v>1100000</v>
       </c>
       <c r="K50" t="n">
-        <v>2500</v>
+        <v>300000</v>
       </c>
       <c r="L50" t="n">
-        <v>16500</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="51">
@@ -2660,24 +2660,24 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[3, 2, 3, 4, 0, 4, 5]</t>
+          <t>[3, 4, 0, 1, 5, 4, 4]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[2, 1, 3, 3, 4, 2, 2]</t>
+          <t>[3, 4, 0, 2, 1, 3, 3]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[1, 2, 2, 3, 0, 2, 5]</t>
+          <t>[0, 0, 0, 0, 4, 5, 6]</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>21</v>
       </c>
       <c r="G51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" t="n">
         <v>15</v>
@@ -2686,13 +2686,13 @@
         <v>2.142857142857143</v>
       </c>
       <c r="J51" t="n">
-        <v>16000</v>
+        <v>750000</v>
       </c>
       <c r="K51" t="n">
-        <v>7500</v>
+        <v>375000</v>
       </c>
       <c r="L51" t="n">
-        <v>8500</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="52">
@@ -2704,39 +2704,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[4, 3, 5, 1, 5, 1, 5]</t>
+          <t>[1, 2, 3, 1, 1, 2, 3]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[3, 3, 4, 5, 3, 2, 3]</t>
+          <t>[2, 3, 3, 3, 3, 2, 2]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[1, 1, 2, 0, 2, 1, 3]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G52" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1.428571428571429</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J52" t="n">
-        <v>21000</v>
+        <v>600000</v>
       </c>
       <c r="K52" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L52" t="n">
-        <v>16000</v>
+        <v>575000</v>
       </c>
     </row>
     <row r="53">
@@ -2748,39 +2748,83 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 2, 1, 5, 4]</t>
+          <t>[5, 3, 5, 0, 2, 2, 1]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[0, 5, 3, 3, 3, 4, 2]</t>
+          <t>[3, 2, 4, 3, 3, 2, 4]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 3]</t>
+          <t>[2, 3, 4, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="F53" t="n">
         <v>18</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="J53" t="n">
-        <v>15000</v>
+        <v>900000</v>
       </c>
       <c r="K53" t="n">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="L53" t="n">
-        <v>13000</v>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[3, 2, 4, 2, 0, 3, 3]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[5, 3, 1, 3, 3, 4, 3]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[0, 0, 3, 2, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>17</v>
+      </c>
+      <c r="G54" t="n">
+        <v>17</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J54" t="n">
+        <v>850000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>125000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>725000</v>
       </c>
     </row>
   </sheetData>
